--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2731221.289707372</v>
+        <v>2828619.940797745</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095102</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>141.2664816298829</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174297</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>306.3326056444169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356725</v>
+        <v>66.70865780356731</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100823</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
-        <v>43.59112649585609</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>50.68108481610361</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.8311101301514</v>
       </c>
       <c r="T4" t="n">
-        <v>95.73387277449424</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>89.56099441449065</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>160.0655515896117</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.52513386151729</v>
+        <v>26.32682625415377</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9.764863467406773</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.836482428420796</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.94242247934729</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479897</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>70.27266146411722</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.05891149548715</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.98381717399445</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>60.49353368195786</v>
       </c>
       <c r="T22" t="n">
-        <v>59.9032091929889</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>275.9431097350601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.32594880469551</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>150.2062474346966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>159.6485136801226</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3083,7 +3085,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.6898441249701</v>
       </c>
       <c r="C34" t="n">
-        <v>70.82764119510597</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>87.0393103426988</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>36.38253456427775</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971793</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>147.063354596813</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.02719212039572</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -4031,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.04428069320032</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1552.845672470209</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="C2" t="n">
-        <v>1183.883155529797</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="D2" t="n">
-        <v>1183.883155529797</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="E2" t="n">
-        <v>1183.883155529797</v>
+        <v>876.5486076249866</v>
       </c>
       <c r="F2" t="n">
-        <v>772.8972507401895</v>
+        <v>465.5627028353791</v>
       </c>
       <c r="G2" t="n">
-        <v>354.6435741185102</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015914</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.076446806072</v>
+        <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
-        <v>769.564092592721</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811684</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633676</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054137</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684993</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804445</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804445</v>
+        <v>2182.66844410271</v>
       </c>
       <c r="T2" t="n">
-        <v>2292.214167804445</v>
+        <v>2182.66844410271</v>
       </c>
       <c r="U2" t="n">
-        <v>2292.214167804445</v>
+        <v>1928.883469259212</v>
       </c>
       <c r="V2" t="n">
-        <v>2292.214167804445</v>
+        <v>1928.883469259212</v>
       </c>
       <c r="W2" t="n">
-        <v>1939.44551253433</v>
+        <v>1576.114813989098</v>
       </c>
       <c r="X2" t="n">
-        <v>1939.44551253433</v>
+        <v>1266.687939600798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1939.44551253433</v>
+        <v>876.5486076249866</v>
       </c>
     </row>
     <row r="3">
@@ -4404,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683012</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138134</v>
+        <v>338.9063907138129</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568467</v>
+        <v>710.5174612568458</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459036</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030032</v>
+        <v>1501.59413803003</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119905</v>
+        <v>1905.563735119902</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695914</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684993</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885995</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2261.57710798109</v>
+        <v>2144.554785926783</v>
       </c>
       <c r="T3" t="n">
-        <v>2062.073425141821</v>
+        <v>1945.051103087514</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1893.858088121753</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1658.70597989001</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1404.468623161808</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1196.617122956276</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>988.8568241913216</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369987</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369987</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369987</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369987</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369987</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369987</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181627</v>
+        <v>88.80529410181603</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365668</v>
+        <v>197.4326649365663</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950606</v>
+        <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896753</v>
+        <v>449.7398382896744</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885943</v>
+        <v>551.3848716885933</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546206</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546206</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546206</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546206</v>
+        <v>444.3026003756786</v>
       </c>
       <c r="T4" t="n">
-        <v>518.1381936642224</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="U4" t="n">
-        <v>228.9574910439396</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="V4" t="n">
-        <v>228.9574910439396</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="W4" t="n">
-        <v>228.9574910439396</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="X4" t="n">
-        <v>228.9574910439396</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.9574910439396</v>
+        <v>216.4388515142992</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
         <v>1422.14692331494</v>
@@ -4562,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2551.654750624988</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>2198.886095354873</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4840,16 @@
         <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.140678483279</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>718.2654857545084</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>718.2654857545084</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="V10" t="n">
-        <v>463.5809975486215</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>1897.67628410419</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.5263537034797</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>584.5263537034797</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5263537034797</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>584.5263537034797</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5226,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745027</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X13" t="n">
-        <v>805.3189328470098</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.5263537034797</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5269,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>410.7144041584436</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>435.7957616486535</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1724.269887816384</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1435.167020942028</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1180.482532736141</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W19" t="n">
-        <v>891.0653626991802</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X19" t="n">
-        <v>891.0653626991802</v>
+        <v>838.2368056224234</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.0653626991802</v>
+        <v>617.4442264788933</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5731,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1797.117834600129</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272054</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5789,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5820,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3253.9083103166</v>
+        <v>3480.327537565077</v>
       </c>
       <c r="C22" t="n">
-        <v>3084.972127388693</v>
+        <v>3480.327537565077</v>
       </c>
       <c r="D22" t="n">
-        <v>3084.972127388693</v>
+        <v>3330.210898152742</v>
       </c>
       <c r="E22" t="n">
-        <v>3084.972127388693</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388693</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J22" t="n">
         <v>2962.391923210348</v>
@@ -5935,25 +5937,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>4716.947142942996</v>
       </c>
       <c r="T22" t="n">
-        <v>4717.543430305591</v>
+        <v>4495.180527512522</v>
       </c>
       <c r="U22" t="n">
-        <v>4428.440563431234</v>
+        <v>4206.077660638165</v>
       </c>
       <c r="V22" t="n">
-        <v>4173.756075225348</v>
+        <v>3951.393172432278</v>
       </c>
       <c r="W22" t="n">
-        <v>3884.338905188387</v>
+        <v>3661.976002395317</v>
       </c>
       <c r="X22" t="n">
-        <v>3656.34935429037</v>
+        <v>3661.976002395317</v>
       </c>
       <c r="Y22" t="n">
-        <v>3435.55677514684</v>
+        <v>3661.976002395317</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,43 +5992,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,7 +6071,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6084,22 +6086,22 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>656.9233744498081</v>
+        <v>970.5459590456827</v>
       </c>
       <c r="C25" t="n">
-        <v>656.9233744498081</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
         <v>506.8067350374723</v>
@@ -6148,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1174.330095384786</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V25" t="n">
-        <v>1174.330095384786</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="W25" t="n">
-        <v>884.9129253478254</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X25" t="n">
-        <v>656.9233744498081</v>
+        <v>1217.170129739251</v>
       </c>
       <c r="Y25" t="n">
-        <v>656.9233744498081</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277728</v>
@@ -6230,31 +6232,31 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.85891762269</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294614</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353396</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6300,7 +6302,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6321,10 +6323,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6414,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1523.103642431788</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1523.103642431788</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1523.103642431788</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>1523.103642431788</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,25 +6466,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1014.851249206416</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1465.885462454824</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>1999.417367126749</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6555,37 +6557,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>171.0738540998319</v>
+        <v>3086.20547369132</v>
       </c>
       <c r="C31" t="n">
-        <v>171.0738540998319</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D31" t="n">
-        <v>171.0738540998319</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E31" t="n">
-        <v>171.0738540998319</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F31" t="n">
-        <v>171.0738540998319</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>3696.248728662284</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>3468.259177764266</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998319</v>
+        <v>3247.466598620736</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6682,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6707,19 +6709,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6795,10 +6797,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858343</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1538185715858</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1538185715858</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858343</v>
+        <v>3082.612567657322</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
@@ -6938,25 +6940,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>1923.729615463052</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N35" t="n">
-        <v>2903.481887689699</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6977,10 +6979,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7034,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>617.4442264788923</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C37" t="n">
-        <v>448.5080435509855</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="D37" t="n">
-        <v>360.5895482553301</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="E37" t="n">
-        <v>360.5895482553301</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="F37" t="n">
-        <v>360.5895482553301</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7120,25 +7122,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1355.6435265574</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V37" t="n">
-        <v>1355.6435265574</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W37" t="n">
-        <v>1066.22635652044</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X37" t="n">
-        <v>838.2368056224225</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y37" t="n">
-        <v>617.4442264788923</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,16 +7177,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7263,16 +7265,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433621</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998319</v>
+        <v>3014.594967945067</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.058578925877</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2265.590483597801</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7436,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7500,40 +7502,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3065.818133790497</v>
+        <v>1036.495701195955</v>
       </c>
       <c r="C43" t="n">
-        <v>3065.818133790497</v>
+        <v>867.5595182680486</v>
       </c>
       <c r="D43" t="n">
-        <v>3065.818133790497</v>
+        <v>717.4428788557128</v>
       </c>
       <c r="E43" t="n">
-        <v>3065.818133790497</v>
+        <v>569.5297852733197</v>
       </c>
       <c r="F43" t="n">
-        <v>3065.818133790497</v>
+        <v>422.6398377754093</v>
       </c>
       <c r="G43" t="n">
-        <v>2917.269290763413</v>
+        <v>254.9370011501283</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763413</v>
+        <v>108.7198143679861</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U43" t="n">
-        <v>3985.665898699244</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V43" t="n">
-        <v>3985.665898699244</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W43" t="n">
-        <v>3696.248728662284</v>
+        <v>1666.926296067742</v>
       </c>
       <c r="X43" t="n">
-        <v>3468.259177764266</v>
+        <v>1438.936745169725</v>
       </c>
       <c r="Y43" t="n">
-        <v>3247.466598620736</v>
+        <v>1218.144166026195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7634,64 +7636,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>416.1091927888629</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7746,7 +7748,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>470.2141403171222</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>301.2779573892153</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>151.1613179768796</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>151.1613179768796</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208122</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838516</v>
+        <v>1100.644735188909</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858343</v>
+        <v>872.6551842908921</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423041</v>
+        <v>651.8626051473619</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>268.4866247763288</v>
+        <v>268.4866247763285</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
-        <v>297.8289162490814</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792135</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>139.356359757139</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>161.8544041422904</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476856</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5010718068651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.017475755657642</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>136.2499899971306</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>426.9983436221929</v>
       </c>
       <c r="O35" t="n">
-        <v>288.7672650676791</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3140082169179</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11309,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>68.47862554358396</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.26811680410505</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>148.3119918879776</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.18790960314068</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>179.5651321021747</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>129.275491649484</v>
       </c>
       <c r="T22" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.26872847055273</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2587045473993</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>69.34270184147258</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>20.18346650181465</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>91.26811680410508</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696719</v>
       </c>
       <c r="C34" t="n">
-        <v>96.41917990352187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>61.57616267551356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.6432736947505</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>21.59472895491547</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.96245366221518</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>83.32522828944239</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>90.37676732973092</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>765841.3468420365</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>765841.3468420368</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420367</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="F2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="G2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="J2" t="n">
         <v>655184.9483635223</v>
@@ -26344,16 +26346,16 @@
         <v>655184.9483635224</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="N2" t="n">
-        <v>655184.9483635226</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="O2" t="n">
-        <v>655184.948363522</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106488</v>
+        <v>493391.6844106477</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446834</v>
+        <v>91792.6395744693</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832161</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220057</v>
+        <v>21342.09858220081</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861103</v>
+        <v>244465.9635861106</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="I4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="K4" t="n">
         <v>32032.95503079771</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079774</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140129</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,13 +26487,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136759.2939901262</v>
+        <v>-136759.2939901256</v>
       </c>
       <c r="C6" t="n">
-        <v>283927.4175018204</v>
+        <v>283927.4175018196</v>
       </c>
       <c r="D6" t="n">
-        <v>375720.0570762887</v>
+        <v>375720.057076289</v>
       </c>
       <c r="E6" t="n">
-        <v>-200608.9389143954</v>
+        <v>-200608.9389143955</v>
       </c>
       <c r="F6" t="n">
         <v>526768.4750790109</v>
       </c>
       <c r="G6" t="n">
-        <v>526768.4750790113</v>
+        <v>526768.4750790109</v>
       </c>
       <c r="H6" t="n">
-        <v>526768.4750790109</v>
+        <v>526768.4750790111</v>
       </c>
       <c r="I6" t="n">
-        <v>526768.4750790111</v>
+        <v>526768.4750790108</v>
       </c>
       <c r="J6" t="n">
-        <v>372041.9393957948</v>
+        <v>372041.9393957951</v>
       </c>
       <c r="K6" t="n">
-        <v>505426.3764968106</v>
+        <v>505426.3764968103</v>
       </c>
       <c r="L6" t="n">
         <v>526768.4750790111</v>
       </c>
       <c r="M6" t="n">
-        <v>397126.1602400665</v>
+        <v>397126.160240066</v>
       </c>
       <c r="N6" t="n">
-        <v>526768.4750790114</v>
+        <v>526768.4750790112</v>
       </c>
       <c r="O6" t="n">
-        <v>526768.4750790106</v>
+        <v>526768.4750790111</v>
       </c>
       <c r="P6" t="n">
-        <v>526768.4750790111</v>
+        <v>526768.4750790112</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435503</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712483</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435503</v>
+        <v>306.3599178435495</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353633</v>
+        <v>71.38374637353712</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712483</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330729</v>
+        <v>82.924445083308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712485</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330706</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712483</v>
+        <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330729</v>
+        <v>82.924445083308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>185.5952209537627</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174317</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>63.39849503405213</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27506,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>115.8520988337607</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>175.2169444463084</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27558,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848769</v>
+        <v>54.30080173848779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731829</v>
+        <v>39.90169565731841</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>45.55775081655719</v>
       </c>
       <c r="T4" t="n">
-        <v>129.8512385982714</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>238.1912640556442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>189.1754171278013</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>184.5011865124287</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.2087078019633</v>
+        <v>356.4070154093268</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>215.2702419906775</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>283.4453918135569</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672563</v>
+        <v>1.23159765967256</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212164</v>
+        <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452654</v>
+        <v>47.48116877452641</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676343</v>
+        <v>104.530311867634</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015739</v>
+        <v>156.6638408015735</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787782</v>
+        <v>194.3553476787777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589801</v>
+        <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095248</v>
+        <v>219.7570494095242</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811557</v>
+        <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579893</v>
+        <v>177.1052829579888</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709656</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940671</v>
+        <v>77.36434648940651</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978856</v>
+        <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216647</v>
+        <v>5.391318755216634</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380503</v>
+        <v>0.09852781277380478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540517</v>
+        <v>0.6589628421540499</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014131</v>
+        <v>6.364193765014114</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784783</v>
+        <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403697</v>
+        <v>62.2575376440368</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683584</v>
+        <v>106.4080480683581</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966506</v>
+        <v>143.0787521966502</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247349</v>
+        <v>166.9661552247345</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302329</v>
+        <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382931</v>
+        <v>156.7840232382927</v>
       </c>
       <c r="P3" t="n">
-        <v>125.833000972382</v>
+        <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338387</v>
+        <v>84.11602876338364</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163491</v>
+        <v>40.9134999716348</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422108</v>
+        <v>12.23994577422105</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945497</v>
+        <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276657</v>
+        <v>0.04335281856276646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654186</v>
+        <v>0.5524523108654171</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967088</v>
+        <v>4.911803272967076</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584368</v>
+        <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818509</v>
+        <v>39.05837837818498</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509134</v>
+        <v>64.18491393509117</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448232</v>
+        <v>82.13459174448211</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502192</v>
+        <v>86.59941087502169</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361452</v>
+        <v>84.54027044361429</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395937</v>
+        <v>78.08662299395917</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230477</v>
+        <v>66.8165958523046</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437609</v>
+        <v>46.26034759437597</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400327</v>
+        <v>24.8402648140032</v>
       </c>
       <c r="S4" t="n">
-        <v>9.6277370902637</v>
+        <v>9.627737090263674</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515879</v>
+        <v>2.360478055515872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084105</v>
+        <v>0.03013376241084097</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31847,10 +31849,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32087,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32096,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33041,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33275,7 +33277,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33515,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33752,7 +33754,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302178</v>
+        <v>92.58102251302151</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277581</v>
+        <v>260.7194023277577</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592414</v>
+        <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245398</v>
+        <v>435.4250728245393</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249181</v>
+        <v>427.6909102249175</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222144</v>
+        <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742024</v>
+        <v>267.6709953742019</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564208</v>
+        <v>123.0079925564204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777911</v>
+        <v>61.51094631777895</v>
       </c>
       <c r="K3" t="n">
-        <v>233.031846106578</v>
+        <v>233.0318461065777</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202355</v>
+        <v>375.3647177202351</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527165</v>
+        <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>308.5301652232284</v>
+        <v>308.5301652232278</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705782</v>
+        <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979889</v>
+        <v>310.3213621979886</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132114</v>
+        <v>154.2115424132112</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920849</v>
+        <v>41.91542210920832</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047985</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368625</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228431</v>
+        <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.671750907999</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719826</v>
+        <v>64.09515511719809</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
-        <v>836.750032079308</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35744,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>866.6205424822323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>647.409360645358</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>714.1562395552016</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400175</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36832,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>568.6923583622655</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>456.6075901479896</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37075,13 +37077,13 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>675.1711058273571</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37306,28 +37308,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>979.3001790351042</v>
       </c>
       <c r="O35" t="n">
-        <v>796.8202659558981</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37543,7 +37545,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>800.9041226092498</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7860185257257</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265651</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2828619.940797745</v>
+        <v>2822879.826089529</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095102</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9066321.707652662</v>
+        <v>9066321.70765266</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>66.05710462956803</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>306.3326056444169</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>50.68108481610361</v>
+        <v>102.8354606768612</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.8311101301514</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>163.4381150164782</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>160.0655515896117</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>21.98731469248581</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>177.9498744325401</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.32682625415377</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>352.2244945626373</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.836482428420796</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>171.5290997186463</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.3165365479897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.27266146411722</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.05891149548715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997079</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.49353368195786</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>276.7747403410128</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.32594880469551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492315</v>
+        <v>125.8899207760151</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.6485136801226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>109.8086813248563</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249701</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771014</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292523</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>88.52767850900484</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>36.38253456427775</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873207</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>79.75177172097324</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.9899243971793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873218</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.02719212039572</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>55.04428069320032</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>239.6003837690088</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.5486076249866</v>
+        <v>1564.977642174813</v>
       </c>
       <c r="C2" t="n">
-        <v>876.5486076249866</v>
+        <v>1564.977642174813</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5486076249866</v>
+        <v>1206.711943568063</v>
       </c>
       <c r="E2" t="n">
-        <v>876.5486076249866</v>
+        <v>1206.711943568063</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>795.7260387784554</v>
       </c>
       <c r="G2" t="n">
-        <v>47.3090262136998</v>
+        <v>377.4723621567761</v>
       </c>
       <c r="H2" t="n">
         <v>47.3090262136998</v>
@@ -4336,7 +4336,7 @@
         <v>397.0764468060713</v>
       </c>
       <c r="L2" t="n">
-        <v>769.56409259272</v>
+        <v>769.5640925927198</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689014</v>
@@ -4348,7 +4348,7 @@
         <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.45131068499</v>
@@ -4360,22 +4360,22 @@
         <v>2182.66844410271</v>
       </c>
       <c r="T2" t="n">
-        <v>2182.66844410271</v>
+        <v>1962.764877629059</v>
       </c>
       <c r="U2" t="n">
-        <v>1928.883469259212</v>
+        <v>1896.040529518384</v>
       </c>
       <c r="V2" t="n">
-        <v>1928.883469259212</v>
+        <v>1564.977642174813</v>
       </c>
       <c r="W2" t="n">
-        <v>1576.114813989098</v>
+        <v>1564.977642174813</v>
       </c>
       <c r="X2" t="n">
-        <v>1266.687939600798</v>
+        <v>1564.977642174813</v>
       </c>
       <c r="Y2" t="n">
-        <v>876.5486076249866</v>
+        <v>1564.977642174813</v>
       </c>
     </row>
     <row r="3">
@@ -4421,40 +4421,40 @@
         <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1710.341330101583</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2114.310927191455</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695911</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885992</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926783</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087514</v>
+        <v>2165.947627845721</v>
       </c>
       <c r="U3" t="n">
-        <v>1893.858088121753</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1658.70597989001</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1404.468623161808</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1196.617122956276</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>988.8568241913216</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="C4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="D4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="E4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.3090262136998</v>
       </c>
       <c r="G4" t="n">
         <v>47.3090262136998</v>
@@ -4491,16 +4491,16 @@
         <v>47.3090262136998</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181606</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
         <v>322.35411989506</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896745</v>
       </c>
       <c r="O4" t="n">
         <v>551.3848716885933</v>
@@ -4515,25 +4515,25 @@
         <v>614.8390752546194</v>
       </c>
       <c r="S4" t="n">
-        <v>444.3026003756786</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="T4" t="n">
-        <v>216.4388515142992</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="U4" t="n">
-        <v>216.4388515142992</v>
+        <v>614.8390752546194</v>
       </c>
       <c r="V4" t="n">
-        <v>216.4388515142992</v>
+        <v>449.7500701874696</v>
       </c>
       <c r="W4" t="n">
-        <v>216.4388515142992</v>
+        <v>449.7500701874696</v>
       </c>
       <c r="X4" t="n">
-        <v>216.4388515142992</v>
+        <v>449.7500701874696</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.4388515142992</v>
+        <v>228.9574910439395</v>
       </c>
     </row>
     <row r="5">
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,19 +4591,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205144</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
         <v>2149.375138862102</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,19 +4676,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323009</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323009</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1421.217123115521</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,7 +5035,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,13 +5047,13 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5132,7 +5132,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>791.1092127022168</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.2638710736754</v>
+        <v>570.3166335586867</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.7144041584436</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089896</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>435.7957616486535</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V19" t="n">
-        <v>1355.643526557401</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W19" t="n">
-        <v>1066.226356520441</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>838.2368056224234</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>617.4442264788933</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5758,19 +5758,19 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5779,13 +5779,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3480.327537565077</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3480.327537565077</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3330.210898152742</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4716.947142942996</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4495.180527512522</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4206.077660638165</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>3951.393172432278</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3661.976002395317</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3661.976002395317</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3661.976002395317</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,10 +5974,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027647</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
@@ -6086,7 +6086,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.5459590456827</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674229</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V25" t="n">
-        <v>1734.576850674229</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.159680637269</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X25" t="n">
-        <v>1217.170129739251</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1152.194423875922</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277728</v>
@@ -6232,31 +6232,31 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6302,7 +6302,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6323,7 +6323,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>928.0672628648947</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998319</v>
+        <v>707.2746837213646</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,22 +6469,22 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3086.20547369132</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.269290763413</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763413</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699244</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>3985.665898699244</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>3696.248728662284</v>
+        <v>1020.121909684717</v>
       </c>
       <c r="X31" t="n">
-        <v>3468.259177764266</v>
+        <v>792.1323587866996</v>
       </c>
       <c r="Y31" t="n">
-        <v>3247.466598620736</v>
+        <v>571.3397796431694</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6709,19 +6709,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763413</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763413</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763413</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763413</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763413</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763413</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816073</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="U34" t="n">
-        <v>4075.496355941717</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="V34" t="n">
-        <v>3820.81186773583</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W34" t="n">
-        <v>3531.394697698869</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X34" t="n">
-        <v>3303.405146800852</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y34" t="n">
-        <v>3082.612567657322</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551614</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208925</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2016.310259422545</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2985.817436667298</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6979,10 +6979,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.5282561439485</v>
+        <v>814.7290857654782</v>
       </c>
       <c r="C37" t="n">
-        <v>278.5282561439485</v>
+        <v>645.7929028375713</v>
       </c>
       <c r="D37" t="n">
-        <v>278.5282561439485</v>
+        <v>645.7929028375713</v>
       </c>
       <c r="E37" t="n">
-        <v>278.5282561439485</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>278.5282561439485</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
         <v>241.7782212305366</v>
@@ -7098,49 +7098,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926988</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052696</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="W37" t="n">
-        <v>908.9588510157357</v>
+        <v>1445.159680637265</v>
       </c>
       <c r="X37" t="n">
-        <v>680.9693001177184</v>
+        <v>1217.170129739248</v>
       </c>
       <c r="Y37" t="n">
-        <v>460.1767209741882</v>
+        <v>996.3775505957179</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749765</v>
@@ -7162,10 +7162,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7219,7 +7219,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3014.594967945067</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C40" t="n">
-        <v>3014.594967945067</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D40" t="n">
-        <v>3014.594967945067</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E40" t="n">
-        <v>3014.594967945067</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>3014.594967945067</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1875.786120932004</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1654.01950550153</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1364.916638627173</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1110.232150421286</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>820.8149803843256</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.57468955838</v>
+        <v>592.8254294863083</v>
       </c>
       <c r="Y40" t="n">
-        <v>3014.594967945067</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001599</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,22 +7411,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195856</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422503</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1036.495701195955</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>867.5595182680486</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>717.4428788557128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>569.5297852733197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>422.6398377754093</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>254.9370011501283</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>108.7198143679861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1956.343466104703</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1666.926296067742</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1438.936745169725</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1218.144166026195</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>470.2141403171222</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C46" t="n">
-        <v>301.2779573892153</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>151.1613179768796</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>151.1613179768796</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.746393431757</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.06190522587</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W46" t="n">
-        <v>1100.644735188909</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X46" t="n">
-        <v>872.6551842908921</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y46" t="n">
-        <v>651.8626051473619</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>268.4866247763285</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.8185614859232</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263786</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,22 +9406,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O20" t="n">
-        <v>139.356359757139</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>161.8544041422904</v>
+        <v>123.4719563470485</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.017475755657642</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>136.2499899971306</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>426.9983436221929</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>103.7862464855155</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476844</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>54.18055567039087</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.26811680410505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.3119918879776</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.18790960314068</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>272.3211098256421</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>129.275491649484</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>9.437097864600105</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2587045473993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270141</v>
+        <v>53.94205940592218</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.18346650181465</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>176.7143170117347</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696719</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.50340795434049</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>57.90628413756433</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>129.6432736947505</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>110.0172536104687</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.59472895491547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>83.32522828944239</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>90.37676732973092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>46.61145443660405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420365</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420367</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420365</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420367</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420365</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635221</v>
       </c>
       <c r="F2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="G2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="H2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="J2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="L2" t="n">
         <v>655184.9483635222</v>
       </c>
-      <c r="J2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>655184.9483635221</v>
+      </c>
+      <c r="N2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635225</v>
       </c>
       <c r="O2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635222</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106478</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744693</v>
+        <v>91792.63957446933</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220081</v>
+        <v>21342.09858220079</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="F4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32032.95503079766</v>
+      </c>
+      <c r="I4" t="n">
         <v>32032.95503079769</v>
       </c>
-      <c r="G4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32032.95503079771</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>32032.95503079773</v>
+      </c>
+      <c r="K4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="J4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079771</v>
-      </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307976</v>
       </c>
       <c r="N4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079762</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136759.2939901256</v>
+        <v>-136759.2939901259</v>
       </c>
       <c r="C6" t="n">
-        <v>283927.4175018196</v>
+        <v>283927.4175018197</v>
       </c>
       <c r="D6" t="n">
         <v>375720.057076289</v>
       </c>
       <c r="E6" t="n">
-        <v>-200608.9389143955</v>
+        <v>-201280.8938166538</v>
       </c>
       <c r="F6" t="n">
-        <v>526768.4750790109</v>
+        <v>526096.5201767531</v>
       </c>
       <c r="G6" t="n">
-        <v>526768.4750790109</v>
+        <v>526096.5201767533</v>
       </c>
       <c r="H6" t="n">
-        <v>526768.4750790111</v>
+        <v>526096.5201767534</v>
       </c>
       <c r="I6" t="n">
-        <v>526768.4750790108</v>
+        <v>526096.5201767533</v>
       </c>
       <c r="J6" t="n">
-        <v>372041.9393957951</v>
+        <v>371369.984493537</v>
       </c>
       <c r="K6" t="n">
-        <v>505426.3764968103</v>
+        <v>504754.4215945525</v>
       </c>
       <c r="L6" t="n">
-        <v>526768.4750790111</v>
+        <v>526096.5201767529</v>
       </c>
       <c r="M6" t="n">
-        <v>397126.160240066</v>
+        <v>396454.2053378082</v>
       </c>
       <c r="N6" t="n">
-        <v>526768.4750790112</v>
+        <v>526096.5201767533</v>
       </c>
       <c r="O6" t="n">
-        <v>526768.4750790111</v>
+        <v>526096.5201767533</v>
       </c>
       <c r="P6" t="n">
-        <v>526768.4750790112</v>
+        <v>526096.5201767531</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435496</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26792,7 +26792,7 @@
         <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435496</v>
       </c>
       <c r="C3" t="n">
         <v>71.38374637353712</v>
@@ -27014,7 +27014,7 @@
         <v>591.3628276712475</v>
       </c>
       <c r="C4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330814</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712479</v>
       </c>
       <c r="K4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330792</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>591.3628276712475</v>
       </c>
       <c r="K4" t="n">
-        <v>82.924445083308</v>
+        <v>82.92444508330814</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>162.9947207958795</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>72.50477145174315</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>185.1900204654947</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>63.39849503405213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100833</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>175.2169444463084</v>
+        <v>123.0625685855508</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>54.30080173848778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.9016956573184</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>45.55775081655719</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>88.69952830734977</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>154.2703906151715</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>189.1754171278013</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>123.4337333304454</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>108.5731239040509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.4070154093268</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>54.65155117907415</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>283.4453918135569</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.775948381554245e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30471,13 +30471,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-5.631541210371732e-14</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>12.61309953212161</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452642</v>
       </c>
       <c r="J2" t="n">
         <v>104.530311867634</v>
@@ -31062,28 +31062,28 @@
         <v>216.2577725589796</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095243</v>
       </c>
       <c r="O2" t="n">
         <v>207.5103501811552</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579889</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940653</v>
       </c>
       <c r="S2" t="n">
         <v>28.06503166978849</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216635</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380479</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.65896284215405</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014115</v>
       </c>
       <c r="I3" t="n">
         <v>22.68797504784778</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.25753764403682</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
         <v>143.0787521966502</v>
@@ -31144,16 +31144,16 @@
         <v>171.3852525302325</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382928</v>
       </c>
       <c r="P3" t="n">
         <v>125.8330009723817</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.11602876338365</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163481</v>
       </c>
       <c r="S3" t="n">
         <v>12.23994577422105</v>
@@ -31162,7 +31162,7 @@
         <v>2.65608268394549</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276647</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654172</v>
       </c>
       <c r="H4" t="n">
         <v>4.911803272967076</v>
@@ -31208,37 +31208,37 @@
         <v>16.61374767584364</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818499</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509119</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448214</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.5994108750217</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.5402704436143</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.08662299395918</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230462</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.26034759437599</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400321</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.627737090263675</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515873</v>
       </c>
       <c r="U4" t="n">
         <v>0.03013376241084097</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31852,10 +31852,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P12" t="n">
         <v>447.6103584002926</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,13 +32557,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32806,10 +32806,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302152</v>
       </c>
       <c r="K2" t="n">
         <v>260.7194023277577</v>
@@ -34707,7 +34707,7 @@
         <v>376.2501472592409</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245394</v>
       </c>
       <c r="N2" t="n">
         <v>427.6909102249175</v>
@@ -34716,10 +34716,10 @@
         <v>358.2123200222138</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.670995374202</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777895</v>
+        <v>61.51094631777896</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202352</v>
       </c>
       <c r="M3" t="n">
         <v>490.537185052716</v>
       </c>
       <c r="N3" t="n">
-        <v>308.5301652232278</v>
+        <v>519.3859147904527</v>
       </c>
       <c r="O3" t="n">
         <v>408.0500980705779</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>253.6771550439747</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920834</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368623</v>
@@ -34871,10 +34871,10 @@
         <v>128.6724428228429</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.0951551171981</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
@@ -35500,10 +35500,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O20" t="n">
-        <v>647.409360645358</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36205,13 +36205,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>714.1562395552016</v>
+        <v>675.7737917599597</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>456.6075901479896</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>675.1711058273571</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>979.3001790351042</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701943</v>
       </c>
       <c r="M37" t="n">
         <v>347.6333793934838</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>502.5482327048871</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359034</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2822879.826089529</v>
+        <v>2826285.317213978</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>251.0171590660747</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174334</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
@@ -715,16 +715,16 @@
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>66.05710462956803</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356729</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100843</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>28.33842618974717</v>
       </c>
       <c r="U3" t="n">
-        <v>102.8354606768612</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.2831425801123</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.4381150164782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>334.0402043364338</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.95377689311783</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>21.98731469248581</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.2244945626373</v>
+        <v>378.4326166767232</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>171.5290997186463</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.5103646250807</v>
+        <v>75.35116901583</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>84.69473660442844</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>13.89072837997079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>40.79100033485373</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>276.7747403410128</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.8899207760151</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.77808571121579</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>109.8086813248563</v>
+        <v>1.714088951548558</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>114.2656173771014</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292523</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X35" t="n">
         <v>369.7311006784691</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>88.52767850900484</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3562,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>79.75177172097324</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873218</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.02512141542813651</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,13 +4191,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>239.6003837690088</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1564.977642174813</v>
+        <v>1262.27700164393</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.977642174813</v>
+        <v>1262.27700164393</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.711943568063</v>
+        <v>1262.27700164393</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.711943568063</v>
+        <v>876.4887490456854</v>
       </c>
       <c r="F2" t="n">
-        <v>795.7260387784554</v>
+        <v>465.5028442560778</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4723621567761</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3090262136998</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927198</v>
+        <v>769.5640925927187</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633674</v>
+        <v>1978.679112633671</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.45131068499</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="S2" t="n">
-        <v>2182.66844410271</v>
+        <v>2109.431301222158</v>
       </c>
       <c r="T2" t="n">
-        <v>1962.764877629059</v>
+        <v>1889.527734748507</v>
       </c>
       <c r="U2" t="n">
-        <v>1896.040529518384</v>
+        <v>1635.74275990501</v>
       </c>
       <c r="V2" t="n">
-        <v>1564.977642174813</v>
+        <v>1635.74275990501</v>
       </c>
       <c r="W2" t="n">
-        <v>1564.977642174813</v>
+        <v>1635.74275990501</v>
       </c>
       <c r="X2" t="n">
-        <v>1564.977642174813</v>
+        <v>1262.27700164393</v>
       </c>
       <c r="Y2" t="n">
-        <v>1564.977642174813</v>
+        <v>1262.27700164393</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>814.5336845195542</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>640.0806552384272</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>491.1462455771759</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>331.9087905717204</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>185.3742325986054</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138129</v>
+        <v>338.9063907138125</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568458</v>
+        <v>710.517461256845</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1196.149274459033</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101583</v>
+        <v>1710.341330101581</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191455</v>
+        <v>1905.563735119899</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.45131068499</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.45131068499</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.45131068499</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2365.45131068499</v>
+        <v>2144.554785926779</v>
       </c>
       <c r="T3" t="n">
-        <v>2165.947627845721</v>
+        <v>2115.930113007843</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1887.750285470053</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1652.59817723831</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1398.360820510109</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1190.509320304576</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>982.7490215396222</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.3090262136998</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="C4" t="n">
-        <v>47.3090262136998</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="D4" t="n">
-        <v>47.3090262136998</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="E4" t="n">
-        <v>47.3090262136998</v>
+        <v>212.2414934663384</v>
       </c>
       <c r="F4" t="n">
-        <v>47.3090262136998</v>
+        <v>212.2414934663384</v>
       </c>
       <c r="G4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136998</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181606</v>
+        <v>88.80529410181583</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365664</v>
+        <v>197.4326649365659</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950594</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896745</v>
+        <v>449.7398382896737</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.3848716885924</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="V4" t="n">
-        <v>449.7500701874696</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="W4" t="n">
-        <v>449.7500701874696</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="X4" t="n">
-        <v>449.7500701874696</v>
+        <v>360.1545870487315</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.9574910439395</v>
+        <v>360.1545870487315</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>962.7871137416676</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2149.375138862102</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.375138862102</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951864</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>290.8087152951864</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>290.8087152951864</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951864</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626212</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.883827626212</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5029,40 +5029,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>964.3709295897384</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>791.1092127022168</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>570.3166335586867</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>729.2066409118285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,16 +5515,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
         <v>2667.236715577531</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>181.1112734427666</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.029470490936</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,19 +5779,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
@@ -5977,7 +5977,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5986,55 +5986,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.734306600802</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443162</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.722831322499</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.4103109586945</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4741280307875</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862231</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1586.942564073329</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1332.258075867442</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1042.840905830482</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>814.8513549324643</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.0587757889342</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232733</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679679</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.1131475839755</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1769646560686</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560686</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
         <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.473983799873</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.056813762912</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>928.0672628648947</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.2746837213646</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>387.7938597516191</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>721.6132334414656</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1172.647446689874</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195856</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N29" t="n">
-        <v>2762.028521254639</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>389.6913148129298</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C31" t="n">
         <v>389.6913148129298</v>
@@ -6615,16 +6615,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689057</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814701</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608814</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1020.121909684717</v>
+        <v>1189.058092612624</v>
       </c>
       <c r="X31" t="n">
-        <v>792.1323587866996</v>
+        <v>961.0685417146066</v>
       </c>
       <c r="Y31" t="n">
-        <v>571.3397796431694</v>
+        <v>740.2759625710764</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1751.093193329805</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1751.093193329805</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.093193329805</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1751.093193329805</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551614</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.557933208925</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>814.7290857654782</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C37" t="n">
-        <v>645.7929028375713</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D37" t="n">
-        <v>645.7929028375713</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,46 +7101,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482926988</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.3434661047</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.576850674226</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.576850674226</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1734.576850674226</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.159680637265</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1217.170129739248</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>996.3775505957179</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
         <v>263.2638710736754</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1875.786120932004</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1654.01950550153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1364.916638627173</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1110.232150421286</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>820.8149803843256</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>592.8254294863083</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.8254294863083</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001599</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7426,10 +7426,10 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7675,16 +7675,16 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W44" t="n">
         <v>3524.42128699119</v>
@@ -7693,7 +7693,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.4972173763014</v>
+        <v>506.8321102045714</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8321102045714</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1211.039919592919</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>956.3554313870318</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W46" t="n">
-        <v>666.9382613500712</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="X46" t="n">
-        <v>666.9382613500712</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="Y46" t="n">
-        <v>446.1456822065411</v>
+        <v>688.4805750348112</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>183.0065697095037</v>
       </c>
       <c r="P3" t="n">
-        <v>261.8185614859232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792226</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>344.7025836476849</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>123.4719563470485</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>104.3976710547467</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,16 +10123,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>219.3344627260169</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561025</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54.18055567039087</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.0742887270141</v>
+        <v>143.2334843362648</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.55208449419939</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>272.3211098256421</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>105.6429623117155</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>9.437097864600105</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94205940592218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>108.8373873069966</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>176.7143170117347</v>
+        <v>284.8089093850425</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>75.50340795434049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>57.90628413756433</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>110.0172536104687</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.5903516027842</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.61145443660405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420367</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>765841.3468420365</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>765841.3468420367</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765841.3468420366</v>
+        <v>765841.3468420367</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765841.3468420365</v>
+        <v>765841.3468420366</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635221</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="F2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="G2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="J2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="K2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="L2" t="n">
         <v>655184.9483635225</v>
       </c>
-      <c r="H2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635221</v>
       </c>
       <c r="N2" t="n">
         <v>655184.9483635224</v>
       </c>
       <c r="O2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="P2" t="n">
         <v>655184.9483635224</v>
-      </c>
-      <c r="P2" t="n">
-        <v>655184.9483635222</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106478</v>
+        <v>493391.6844106468</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446933</v>
+        <v>91792.63957447026</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220079</v>
+        <v>21342.09858220099</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861106</v>
+        <v>244465.9635861108</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26426,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079766</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.95503079767</v>
+      </c>
+      <c r="L4" t="n">
         <v>32032.95503079769</v>
       </c>
-      <c r="J4" t="n">
-        <v>32032.95503079773</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079773</v>
-      </c>
       <c r="M4" t="n">
-        <v>32032.9550307976</v>
+        <v>32032.95503079761</v>
       </c>
       <c r="N4" t="n">
+        <v>32032.95503079768</v>
+      </c>
+      <c r="O4" t="n">
         <v>32032.95503079769</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>32032.95503079762</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136759.2939901259</v>
+        <v>-136759.2939901252</v>
       </c>
       <c r="C6" t="n">
-        <v>283927.4175018197</v>
+        <v>283927.4175018186</v>
       </c>
       <c r="D6" t="n">
         <v>375720.057076289</v>
       </c>
       <c r="E6" t="n">
-        <v>-201280.8938166538</v>
+        <v>-200676.1344046216</v>
       </c>
       <c r="F6" t="n">
-        <v>526096.5201767531</v>
+        <v>526701.2795887851</v>
       </c>
       <c r="G6" t="n">
-        <v>526096.5201767533</v>
+        <v>526701.2795887853</v>
       </c>
       <c r="H6" t="n">
-        <v>526096.5201767534</v>
+        <v>526701.2795887851</v>
       </c>
       <c r="I6" t="n">
-        <v>526096.5201767533</v>
+        <v>526701.279588785</v>
       </c>
       <c r="J6" t="n">
-        <v>371369.984493537</v>
+        <v>371974.7439055694</v>
       </c>
       <c r="K6" t="n">
-        <v>504754.4215945525</v>
+        <v>505359.1810065843</v>
       </c>
       <c r="L6" t="n">
-        <v>526096.5201767529</v>
+        <v>526701.2795887854</v>
       </c>
       <c r="M6" t="n">
-        <v>396454.2053378082</v>
+        <v>397058.9647498405</v>
       </c>
       <c r="N6" t="n">
-        <v>526096.5201767533</v>
+        <v>526701.2795887854</v>
       </c>
       <c r="O6" t="n">
-        <v>526096.5201767533</v>
+        <v>526701.2795887856</v>
       </c>
       <c r="P6" t="n">
-        <v>526096.5201767531</v>
+        <v>526701.2795887854</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435496</v>
+        <v>306.3599178435488</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435496</v>
+        <v>306.3599178435488</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353712</v>
+        <v>71.38374637353786</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330814</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712479</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330792</v>
+        <v>82.92444508330868</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330814</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>163.0539807893878</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174315</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>185.1900204654947</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>169.170219821129</v>
       </c>
       <c r="U3" t="n">
-        <v>123.0625685855508</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>4.15538446748107</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848778</v>
+        <v>54.30080173848788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.9016956573184</v>
+        <v>39.90169565731851</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>88.69952830734977</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>72.83584140527762</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>154.2703906151715</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>123.4337333304454</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.65155117907415</v>
+        <v>28.44342906498821</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-1.0983655841504e-12</v>
       </c>
       <c r="X35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.775948381554245e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30282,13 +30282,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-7.332262705331416e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30471,13 +30471,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212158</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452642</v>
+        <v>47.4811687745263</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676338</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015732</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787772</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589791</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095243</v>
+        <v>219.7570494095237</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811547</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579889</v>
+        <v>177.1052829579884</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709649</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940653</v>
+        <v>77.36434648940634</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216635</v>
+        <v>5.391318755216622</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380479</v>
+        <v>0.09852781277380455</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65896284215405</v>
+        <v>0.6589628421540484</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014115</v>
+        <v>6.3641937650141</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784772</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403682</v>
+        <v>62.25753764403667</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683579</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966499</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247341</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302321</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382928</v>
+        <v>156.7840232382924</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723814</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338365</v>
+        <v>84.11602876338345</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163481</v>
+        <v>40.91349997163471</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422102</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276647</v>
+        <v>0.04335281856276636</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654172</v>
+        <v>0.5524523108654159</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967065</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.6137476758436</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818499</v>
+        <v>39.0583783781849</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509119</v>
+        <v>64.18491393509103</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448214</v>
+        <v>82.13459174448194</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750217</v>
+        <v>86.59941087502149</v>
       </c>
       <c r="N4" t="n">
-        <v>84.5402704436143</v>
+        <v>84.54027044361411</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395918</v>
+        <v>78.086622993959</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230462</v>
+        <v>66.81659585230445</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437599</v>
+        <v>46.26034759437587</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400321</v>
+        <v>24.84026481400315</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263675</v>
+        <v>9.627737090263652</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515873</v>
+        <v>2.360478055515867</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.0301337624108409</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302152</v>
+        <v>92.58102251302128</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277574</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592404</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245394</v>
+        <v>435.4250728245388</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.690910224917</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222134</v>
       </c>
       <c r="P2" t="n">
-        <v>267.670995374202</v>
+        <v>267.6709953742015</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564205</v>
+        <v>123.0079925564201</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777896</v>
+        <v>61.51094631777881</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065778</v>
+        <v>233.0318461065775</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202352</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527157</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904523</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>197.1943485033516</v>
       </c>
       <c r="P3" t="n">
-        <v>253.6771550439747</v>
+        <v>310.3213621979883</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.211542413211</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920834</v>
+        <v>41.91542210920818</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228427</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.0951551171981</v>
+        <v>64.09515511719793</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400166</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>675.7737917599597</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>295.1846720234593</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>727.3874636142359</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>572.3386662151444</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701943</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
         <v>347.6333793934838</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115031</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859626</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
